--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/46_Kastamonu_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/46_Kastamonu_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE22348E-E7FA-42F9-B8B0-F4A1356BEA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7896590D-34A3-46AE-AE65-A4947672C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{14C57058-CCC5-4531-8163-381F32842869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{B9D45E42-7CF8-4E10-8E46-7353CC6E997C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7C8F126A-903D-4491-90DF-A15D2A4335EB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{64BD1495-8F7D-4924-BA81-B26013E69CA8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EF879FB3-38ED-4A26-9263-67294DBC23AB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{17E8528C-8895-4BE7-BCF3-C8115E9E2DB2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EE2F3E97-7374-4645-B18D-6F8BCECC5875}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B3270F3F-ACFF-42F5-95CE-34E83128E1EE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9AF08E16-B147-42BE-8B32-4BD37B144B94}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F44AFE3A-4161-41B5-A57B-EB8BC09F1812}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2CDFBC5F-3C67-4A3F-A097-4167218C97A0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7BB6C0A8-8895-440B-BD1B-F8C03B950C95}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1C482741-AFBF-4169-99A1-E2E7B5D5C104}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B48BF46A-8085-4E61-93CF-9DC34FB1C110}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4A019979-FFB5-4A1B-AB62-7306284A66E0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AB17731B-83AB-40B3-8E73-DC3913A6F2AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D4107-EDF4-4377-A4A4-A6169E282B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BED44A-1E44-4575-BC7E-DDF3FC354AB5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2548,18 +2548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89BC8B76-FABA-4FA0-8785-38AE6D158452}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1185B196-F05D-4D3F-834F-7DCAC86A64C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06B6CC60-6728-4866-B8FE-925CB807C158}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{94D497CF-9EC0-4ED2-9257-95D1DA166860}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0492A338-929E-4727-A9A3-E9D493F581B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD1F9A69-45D5-47F2-B0B6-6EF9FE5CC73C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB90AE00-C2E9-4DA6-A918-633AB88FB5F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4990614F-F77E-4DCB-A1A5-3A13510B9749}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C3C9F0D-A6DC-44AD-AAE6-DD5AF41E24E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{627B9B81-3CF4-42D4-8FDD-C83DA3C7F628}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9078B07D-1070-4ED4-800E-ED2CEFB6D06B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB24E32A-D44D-4C74-A9ED-888C2787337F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{059DF253-F4D0-453C-9E52-538E27330954}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90FE0659-866B-426E-9338-DE147D4E923F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E70549FC-3254-4FAE-B873-B490BE788FDF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA35ECAC-7468-403E-B673-17D48D6A1FEB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDFB35FE-0083-473B-BC04-6DEA71CF6F2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6070866-B69C-4046-B951-5F5381990339}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{365DC633-5976-45C0-9E41-5382F86255DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F82CF152-3D75-4FBE-A5B7-2381AA814267}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{256B7231-A874-4E4C-9506-6E5594F07ACA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A177A8D6-D00E-4E20-B1B5-8D063D2996CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C097F797-3126-49FB-852D-C1D73E5DAD9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9E2E23C-B4EC-49E2-B199-6E0AA4274747}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023CD516-CA3B-4F4C-A1EE-310E7C2A3E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C9425A-2113-449C-8891-16EE8E041AC6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3792,18 +3792,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D73EBF08-73AF-4FB8-97BC-00264CA567EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B05657A3-AFFE-412A-8E99-27DEBD0235D2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{800B8C46-59DE-4984-824E-E32C490F1083}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C43D812C-3F3F-4DA0-9430-E79CDB31010C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{499D5A03-4054-4AC9-9AEF-336A1702E4A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C532BE2-6C06-407C-94C9-B7198D1A1990}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5ADDF10-2516-491C-B34A-1A8890559702}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65A9C876-27CF-4973-BE4F-6CCC6B3A8130}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DAD78E7-4F35-42FD-9125-81A87FCD2270}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C71DAFF-6E03-4BC8-A32F-5629E86866F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31913F18-6A81-4D7E-807E-5CBD25568704}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C35A0686-C951-467B-AA77-54B282A03F7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C744693B-3E0F-44EC-8C50-432EB2F522A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{049A8C58-8D98-4791-ACCB-BB046D4EBFCD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{88B68D51-4CEA-4D05-AB44-6A4755F6F87B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{370C750E-5E5C-433B-869E-86426EA46A5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9118CAF4-7EE3-40CD-9422-6D66BAE443FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD9FBF25-B7B2-4681-A62A-A04BBCC6F07C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B444F199-CE4B-4828-8033-66FA2D47CC7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2BE0D30-4FDA-4665-8182-8FDC04D953D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC360E41-AEC3-49EC-AF4F-0F46CE451029}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1899B984-A4B0-4F7A-A2BB-2A291725B787}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DB65600-466D-4CB7-ACDC-1B94182D8363}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A965C5A-AE10-49D6-902F-346EC6B6D64D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893D2F27-0796-4570-A59B-31968CD8DC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF63F69-552A-4E9B-8FB6-308C10755F4C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5036,18 +5036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17ED4F9E-FF00-40B2-A09D-2A64650FABB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65BC460D-2E76-46BA-9991-865EE780EACC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36E57FE2-C899-406A-AC3A-2FF223A11602}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B78F01CE-80E0-46F6-BDE1-CAB355EF0BB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E47C3EF7-ED69-48B3-B883-4F45D4984E74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4DFC071-3D75-4728-A2E8-ACE48700A2EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFC2F121-01F3-4944-B955-C9A45B1329A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{111CDFDE-5BC0-4F13-A9A7-ED151536AFD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{094409BA-B72D-4A54-80BE-420C5CE7A3F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{590F6689-6CFD-46FD-9617-32BB985C39F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAA5DCC8-3B30-4F94-97C6-58CC9629E11A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43D8F8E4-F8EF-49C1-9162-59A35F7301E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97A48C67-B0A8-4E91-98CB-F33B8918F6FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D64811B6-82BB-44BE-91FA-6866FAA2701B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67A47590-BCE8-41F1-A063-20591551D764}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72513B14-08B8-43C2-82EA-574CEB8A40EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22E54C6E-B711-427D-9110-6069534E75B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39B3942E-F331-47F3-90B7-E9EED8C6A524}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C02C1224-248D-4E5E-B10E-B63940750FD1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C761CEF-A37E-4D8D-A44A-B92DA0CE4194}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{278777B4-EB2E-4469-956B-EB11197A6F9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A09DC70-ED1D-41D1-B50B-1657A6AC954A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61F4B824-E82F-4015-9D79-8E1C2C35357E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13AFA2A5-B466-4C83-99DC-1FA741FE3287}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5060,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC76E4-26F4-4714-9D80-24DEBE6D681D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC7427-2560-45FB-8034-4DD35ABE82E3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6280,18 +6280,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0170791A-64E5-4E8D-9621-9334AC7962D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB1D7CE3-5B6A-4372-9CEF-57E12552492F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E9AFBF2-2CDA-42B1-9E15-0674C61AD291}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{102B625B-A3B3-456D-B485-F924A1312899}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27291AE8-68CB-466B-BFD0-AB2E707135BB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E55D427A-A9D3-4E5F-8512-9CFCE47CB69C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C76020E1-5840-4580-A27B-DBAA36468E89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FADA3C94-ACA7-4CB6-838D-E408FE6F90DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69C4599E-3619-4DDF-A2CC-80A5A160E63C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0E269C6-1719-4CA5-995D-77871EA54F44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAFE96FC-7474-4982-9092-A5F7CDDF61F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9F1D6E5-F5ED-4E20-823C-B2FC665437DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE89D56A-A79C-4119-A189-781E2B1E1E90}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBDE2274-4DDE-4976-84CE-46B56A04CD3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67CA2F58-6A3D-4D0A-92D6-EA5C71CB3036}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D739D9B8-50E1-42DA-B0F3-9183B9B82B4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67575F4C-EFFE-4AE6-B58F-3334CF150F18}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A98D47E3-1134-4768-9A11-6D9800A84541}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A4A5D3E-CEAA-4523-8739-85BAEDCA7F63}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81FA5E9E-753F-44E1-9F8B-15AC6CCEC3C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{425B9F7B-58F7-428A-A7D7-D2F942B3BA6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D18E02BE-128E-4CFF-AAF5-C2D0188324EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEE7AD02-6184-46ED-B631-8D783926E64D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FC19EA0-9635-4C48-893B-B5FF65118276}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6304,7 +6304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC49B32-F931-437D-834A-A40274134776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EAB8A8-2F49-4198-B0CB-753118180C3C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7539,18 +7539,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0DAA72A-C7A9-429F-992E-C2C1B2218360}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F83607EB-38A9-4F8E-A440-4E0ED52FA9CB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{02BD3FDE-AE8F-44E5-B126-8EBA4FED4092}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD14F7C0-CA9C-436F-A0A7-A164F0E767B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8842F1C9-4333-46BC-8921-11F0C6D00D1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3B27BD5-3361-4A9F-991B-760C05DE2305}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45AC4118-C333-4FB6-82E3-90FA2A75617A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98660A19-477C-43C0-8A62-41A9B556AB1D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76E64615-6EDD-453A-88AE-E4237F456614}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{712DD023-CE70-41FC-B1FD-3F270DBACDAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{806CC37B-515F-413E-B062-DEB0C3925C2B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E6F84D8-C415-4930-B3BE-B317E2C56B20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8449269-38E1-4E2F-98EE-F7332113B2B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{470CAE5B-09A2-4135-97F1-9A6A2C13325C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED04199E-5B21-4C7B-9000-C79FB5F0752C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E37FA8D6-BD78-43A2-B152-B681ABFE4C19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E263F7FA-55DB-476E-BE8E-63FD45DE60CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{437F5084-0E4F-4025-A428-4890D3508FE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F16D3F7-A357-45ED-AC3E-7C6D9A159C54}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0EB309E-9920-491B-9061-BCC379B4ECFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E25C9208-AED6-4C52-97FB-866472D5A27E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37785CF7-E014-42F4-AA2F-AE7A79660987}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34600A7F-9E63-4DFE-8802-724E1C7E6F51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{605E3EF2-9F35-4E36-A287-A85F0C14AA25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7563,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C982E82A-D2C2-4AD1-848B-735B0DF06076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85CD00-C3E0-4E89-9D24-FD6DCCBCC6DE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8798,18 +8798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2513D482-3430-47E7-A6B5-43D7451BC712}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5F181FE-DDCA-48ED-ADE7-4834A2716281}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B8E5CDD-DE30-4F71-8E77-28FD52CC73BB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A78F13E9-C507-4517-812B-DBB6FE47183F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C018F92E-713D-44AB-B34C-A46228A998E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8FD60B0-3200-49A0-9B44-CF5821DC0565}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5567ADBB-5C24-47C9-95E5-FF26DDB1E2F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1D09A8A-0A20-4112-9692-3051DA3764F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE512D2C-0026-4448-AFF5-18591C359F36}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD92C0B0-51F4-4E47-9FC9-C2B24CBB782C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{759395A4-664C-43F8-BEFB-ECD9C58BD34B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A8CC654-F1F4-44DE-9DBC-DB1E32DCBD44}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA4FACDF-BE7D-4F7B-ADA9-84734F57B2A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F039A5-814F-45C6-9C1B-5B7D36121D14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8007F7C-0914-42AB-B53E-9A83E72C214E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BE98A7F-4F97-44D0-AED2-2F562C8928BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD0CB4CB-759E-48C9-90B4-98B064C0D80C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6735F18D-23BC-4A69-930A-BEC800554001}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC7E2852-0416-4206-8A04-ABA9913C794C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92DA9DBB-3873-4619-A19B-B7D6E13E5F2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2CD5E96-24D4-44C6-A542-1C4D55F6360C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E548690-375F-45FE-8386-4A84428D47BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA3897FA-8749-483E-B149-2A9C707EAE8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{459F2634-26B0-4268-A5A1-F61FBFDCCA90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8822,7 +8822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4665D8-B9E2-40A0-B68E-73ABF706F12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FB7E9A-C540-4C52-8B5A-AB2823850230}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10057,18 +10057,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1733070A-38E0-4163-9F2E-492E3FEFDFE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45D5BE36-A791-43FB-8C6C-E2887B87BB8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1A4870C-08CE-48B6-8D49-FCCA36A1C8D0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFAE6338-AF7E-4D0B-94D1-901733807B55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F6CD84E-0F01-41F5-8CB8-DA979AB0911F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47708000-CC0B-4AAB-88D0-E28052E16ACA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14402B56-B46A-4E3F-887B-DF63F062C097}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DE0945A-BCEE-49F6-988A-017A6172BA67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E53683B-08B4-4725-BC59-FFA9155EECE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE3CEDFC-F572-4500-B2A0-810884EFAAF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAD706A2-5748-470D-A77E-DE9443653668}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EEBC22F-F5DA-42BD-9A76-78264E15E9A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AC02B62-0088-4D63-8D3D-E79D7716E99C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD63F82A-61FB-4476-9155-DA450289258E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65807B94-4272-4E7F-AA55-339C188DD2E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{826BEA5E-6E5B-4492-B42A-99E4BF2E673E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A2CF0BB-4084-473F-B8B6-72CD7C2F6914}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BB95D89-956A-4199-A51F-B20DE4FC7705}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2DC23F3-230A-4703-8F9A-B6C353BAF470}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75639FBA-B564-4C7A-8327-CC23E51EBBAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{301D0372-30D1-441E-8B6F-85AB304D597F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19225823-E4D4-486E-B38D-DEDA487163AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9ECA7549-0B0F-44D9-88AC-21D6F5D43AF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C56BF16-7A4C-4828-A83F-670A5BCA186B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10081,7 +10081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FF97A-5838-4A7E-A05B-7AC8B7C87851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AE6C05-8FB1-41B6-9C8A-0F0D9AD8D42E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11316,18 +11316,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E20A9EF-88FB-4341-B667-0FFFE44A37D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70BBECF6-0D56-4808-B2F7-290A785952F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B86B0EE8-E8C6-4BBC-BC60-C08D71B7D50D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8F728C0B-9825-4718-816F-D97FE5ABD7A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A5F0AB8-E3C8-44DE-8F3D-6AE3E8836FF8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4AFEA1A-0868-4337-B179-9946F9551879}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{100E140B-8A7F-4B18-B33F-3E0F866399D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EDA5D5D-B9D0-4AAA-B793-F543AE0D205F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5906F66F-4781-48C3-A434-CEE96A75A30B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C02083C4-2A2F-4303-B8E3-B38B050B18AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C0EE40E-D9F8-45A5-A9B3-3A732B045C99}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6D91BA6-5362-4B02-8A37-0C76E9B741DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58EA2325-9CE6-4D68-A57D-B562E6ADA53E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F5A9CF9-C997-40AE-90F2-38D832020D14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C38A0D74-C423-44F0-A8E7-0ED7C563678D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6046E5BC-03AC-4281-88E3-ED48F3CBE93E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0CE6029-5BF8-4895-AA8A-BB4B076DE3A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CEAA4A3-F659-4E86-876C-3423150575C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2114F54B-00EC-4FA6-B93A-DF37AF1DD50C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EC23409-7939-4F66-AF39-D31F71A7F551}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E6D8B15-6C56-4223-83DA-B8E4F9709F8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A05FED4-43B7-4697-90CF-9B70BCD633CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB11F3A9-D45E-403E-B4FD-B3F8BA655799}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0162219C-B75D-4147-BE8F-5150391E1E43}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11340,7 +11340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2D46AC-4683-4D51-8C6A-D565CD6E1975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F5A368-5444-44A9-AB49-65A13EAD23E1}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12563,18 +12563,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49F808BD-8866-42EF-8D34-6A64272C1F0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E29D69B0-D402-4379-81DD-3BFA20F3490C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D70A3554-9F02-41E7-9884-2C9189E03847}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{121E7CCF-09D6-47EC-8A37-B8888459C8D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16C8A927-61A0-4E7C-A1FD-0E68973570C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80B72D59-95E0-4E53-A1E8-8062DB54C103}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89F2EAC3-AA21-43EB-9F02-BF975333B957}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FFAFBFC-B2BA-46B5-AF33-6F1664DF0408}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED6D2038-BE8F-4B78-A802-23926F0B3240}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3855864-137C-4C08-9BD5-82F15C76A100}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DBE306E-9137-4AD3-9D0C-BFF8EE82D708}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73DB4AA5-6925-4182-921C-8F45834125DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D53C4DC-7486-4F6D-8FC2-15CA4B941616}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65F8ED9D-009C-4655-8546-EAD2CCFDB9A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12462C5F-80D7-419E-AC30-AD8DDE3B65F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{273A8F7F-958F-4A66-8A72-37EE465459BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{502E66F0-4E9B-4328-B433-185BCF37235E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3591DC55-6C00-4692-9F7A-1E2E05407B12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0442F218-76CF-4BE8-B458-19AE2013F581}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43442CB4-4F8B-497A-A155-537057E63E36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBDB5C78-71FE-4CC9-A19E-0CE39267E899}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD41D694-F4D3-48B7-B5F7-86837E0BAADC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{054714E1-6152-4396-8E2C-6493F287A0D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED0A0A1B-2452-44C5-AAB2-B052B1877AFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12587,7 +12587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F213768-0059-4221-8DBD-673CB4472F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E0379F-99E4-4D65-8A2A-B8FFFCD34B7C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13811,18 +13811,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{279B67BD-C7E5-41ED-A855-C58B8191474B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50AEA6E0-A20A-4381-AAE5-E4217272C77A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{793CD7FC-6FF8-418F-B10A-B9F6B218972D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89E42EDA-A56D-4333-877C-E316C7B76133}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81AC4334-006D-4731-84BB-77C9ECED24D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FDA41FE-4D4C-460F-8D1E-976E3C7FFF36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F18D75B-81B6-43E0-B577-8029D421A571}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{106558CC-90F8-4985-BC74-32667495D6E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9C412D6-CE56-4FFE-A070-EC12A488816A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BAFEFCA-E9DA-4111-B615-064C7349408E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70776740-6B98-48BD-A767-9E57226FB4BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5439F3B5-D495-4D41-866B-B2147A8D1220}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E33E8750-A0BF-4CB9-947A-5991486905B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C437A61-9340-433D-9560-EDC95D68A674}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4333C90F-B652-4690-8E0F-04F60720B098}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2CBF8621-0C70-4DA4-AD1D-A739C785C711}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A58CBD9-CF35-4CA9-9D25-814A7FB62701}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D0C756E-4B4A-42B9-8577-7E32CA059B8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73E346FB-C8ED-4824-A0CF-D8E1BFE76AC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C9B03E1-6413-4E35-9A60-ABF6125A1DC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E076B5F-EDDB-408E-8FF2-9567E55ACD0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E6866DD-86F3-4591-9785-1778141FFFDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F97B23E2-F060-4EA1-B8E1-4F870A734A6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F68C8DD1-2E9D-4D78-B3DA-6A4F3D8398FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13835,7 +13835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46873D72-C377-436E-A2F5-95F9A6AFB12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A381C8A-B980-4D59-86DF-759D8C037C1E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15059,18 +15059,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CC85292-D0A3-4CED-AB78-F9B2771DD66B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{451B3C71-45D5-4F15-9412-8758A8D7BA6E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{321A8517-FF68-4FF6-9EF5-42DB62E3ED98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DCA2141-7E98-4477-BC6C-62FA6E063C2F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13B5EE7D-88DF-479F-8797-526D42619164}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC3AC8D6-243D-4980-98BE-80D4236F648B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F06D9B5-3913-4921-9A12-2A240BF27FFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCD52906-D241-4AD3-9923-5B7E3FAB6562}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{868929F1-3245-48B4-8D42-68D846C45897}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{643BF621-89C7-4B80-BCE7-AE9AD5F795C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E034574B-8EFD-46C8-ACFC-D59D3044B8BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92107977-9C0E-4105-BEBD-845A73A159C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12F41DD0-B3AC-4A11-BD7E-EC5FA0A41BB4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C290713-2B11-4C58-97A3-E139E6D006E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{556BAF99-AFA4-4274-88A2-0566A5AD88AA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{620DBBC7-C16E-4E5D-A8C5-44236BB51618}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1417CEEA-08E9-45C7-8A0F-8956AC49B024}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D98A84E0-C0E2-4F60-9FC3-36F337A0F0E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DC82D82-3AAD-42F8-B778-89E7EA6A76F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A001BB1-696E-4189-9E04-EDDBA1217A11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21F04001-25CB-43A3-A4E0-C1AF3315B08A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{929E2C0C-EF24-49BA-9DFC-B471107E37C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD2E6118-BAB6-42C5-933A-A764B0C7E629}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC468E52-2C18-474E-902B-F357910A9997}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15083,7 +15083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4EE2E7-8782-4146-9168-2E7826E6081B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DC5F7A-EC08-4231-9225-820B5A9ADA7B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16307,18 +16307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF07F68A-C246-46F9-92DB-91AC8DE8A147}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCA13CED-53B9-4FD2-B183-8B9C662C139C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A9721DC-8933-4168-AEA5-4E73E5EA7A95}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B20E54F9-AA6D-4C60-BD55-990BC76D8816}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{879576B4-9570-4B47-80BE-45F16BA7C628}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3BCBD33-41C0-4B39-8801-2D76F3CBC0F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B072B0DC-3ABA-477F-BC06-6A11F55E04B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4BEE864-8D47-4729-83C0-8FE2A0134D85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD6B8C5E-076C-4522-8094-A4A76513D9CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B57184F5-4181-4722-A516-6F6CA36CD81B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09B0DCE1-324E-427C-88F2-C6855013DAE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B58EF8D0-AC83-4B6C-9AE5-721C3177602C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C174B32-4D85-4766-8904-AC26BE8030AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B449FC4E-749C-4789-8E6E-2958989664AB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1479B9B-1DE7-43DD-A7AB-F6FAB1687280}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A718A67D-1C64-4F73-8900-82EB1BEF9D6F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA820101-A6BC-4639-B704-E6351E6965B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7EEFB144-8628-49B4-A7D9-E878B4F58B5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93796472-3205-4DC3-A840-67153E385B06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52E46124-F681-45DA-A2C0-3C5D3FA68A6D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2074C636-1B66-4E2F-88BE-6A85D999CF0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{639334B1-BE73-4530-9281-F98708E571F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AE8124E-EECB-45AE-9792-50B55B5F11A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1E1A9E1-8E04-409C-A74A-6617C5F853A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
